--- a/Datas/MonopolyMap.xlsx
+++ b/Datas/MonopolyMap.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F23E500-8EE1-4F47-82EF-3763A2373D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F5F95-CE83-4275-89A1-75AFF4202A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{120673EB-ED9A-45E0-B257-0DC0E06105DF}"/>
+    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13140" xr2:uid="{120673EB-ED9A-45E0-B257-0DC0E06105DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MapConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="MapEvent" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -53,13 +54,236 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>isCorner</t>
+  </si>
+  <si>
+    <t>Collect xx salary as you pass</t>
+  </si>
+  <si>
+    <t>building1</t>
+  </si>
+  <si>
+    <t>building2</t>
+  </si>
+  <si>
+    <t>add money to community chest</t>
+  </si>
+  <si>
+    <t>income tax, pay taxex. Duty calls</t>
+  </si>
+  <si>
+    <t>reading railroad;  take wealth from others (minigame)</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>chance card</t>
+  </si>
+  <si>
+    <t>building3</t>
+  </si>
+  <si>
+    <t>building4</t>
+  </si>
+  <si>
+    <t>building5</t>
+  </si>
+  <si>
+    <t>building6</t>
+  </si>
+  <si>
+    <t>building7</t>
+  </si>
+  <si>
+    <t>building8</t>
+  </si>
+  <si>
+    <t>building9</t>
+  </si>
+  <si>
+    <t>building10</t>
+  </si>
+  <si>
+    <t>safe tile: free parking</t>
+  </si>
+  <si>
+    <t>safe tile: electric company</t>
+  </si>
+  <si>
+    <t>safe tile: just visiting, in jail</t>
+  </si>
+  <si>
+    <t>building11</t>
+  </si>
+  <si>
+    <t>building12</t>
+  </si>
+  <si>
+    <t>building13</t>
+  </si>
+  <si>
+    <t>building14</t>
+  </si>
+  <si>
+    <t>building15</t>
+  </si>
+  <si>
+    <t>building16</t>
+  </si>
+  <si>
+    <t>building17</t>
+  </si>
+  <si>
+    <t>building18</t>
+  </si>
+  <si>
+    <t>building19</t>
+  </si>
+  <si>
+    <t>safe tile: water works</t>
+  </si>
+  <si>
+    <t>jail tile: try to escape by rolling doubles(minigame)</t>
+  </si>
+  <si>
+    <r>
+      <t>draw a [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chance]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> card</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">draw a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[chance]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> card</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxury tax, </t>
+  </si>
+  <si>
+    <t>building20</t>
+  </si>
+  <si>
+    <t>eventId</t>
+  </si>
+  <si>
+    <t>eventParam1</t>
+  </si>
+  <si>
+    <t>eventParam2</t>
+  </si>
+  <si>
+    <t>bank heist</t>
+  </si>
+  <si>
+    <t>jail</t>
+  </si>
+  <si>
+    <t>triggerOnPass</t>
+  </si>
+  <si>
+    <t>add money (base value=1000)</t>
+  </si>
+  <si>
+    <t>lose money (base value=1000)</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>COMMUNITY CHEST</t>
+  </si>
+  <si>
+    <t>tileTitle</t>
+  </si>
+  <si>
+    <t>INCOME TAX</t>
+  </si>
+  <si>
+    <t>RAILROAD</t>
+  </si>
+  <si>
+    <t>AVENUE</t>
+  </si>
+  <si>
+    <t>CHANCE</t>
+  </si>
+  <si>
+    <t>JUST VISITING</t>
+  </si>
+  <si>
+    <t>ELECTRIC COMPANY</t>
+  </si>
+  <si>
+    <t>FREE PARKING</t>
+  </si>
+  <si>
+    <t>WATER WORKS</t>
+  </si>
+  <si>
+    <t>GO TO JAIL</t>
+  </si>
+  <si>
+    <t>LUXURY TAX</t>
+  </si>
+  <si>
+    <t>GO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +305,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +339,38 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -123,13 +393,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,6 +418,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -473,34 +780,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9291EF3-8D1E-4249-88DF-DF32AB1F3002}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7">
+        <v>101</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8">
+        <v>102</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10">
+        <v>105</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18">
+        <v>102</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25">
+        <v>105</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33">
+        <v>103</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38">
+        <v>102</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39">
+        <v>105</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41">
+        <v>101</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98056FBB-1646-416E-BE51-18B785902E36}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datas/MonopolyMap.xlsx
+++ b/Datas/MonopolyMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F5F95-CE83-4275-89A1-75AFF4202A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417C005A-BC77-4DED-A68F-C0A3EFC338A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13140" xr2:uid="{120673EB-ED9A-45E0-B257-0DC0E06105DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{120673EB-ED9A-45E0-B257-0DC0E06105DF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapConfig" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -222,9 +222,6 @@
     <t>bank heist</t>
   </si>
   <si>
-    <t>jail</t>
-  </si>
-  <si>
     <t>triggerOnPass</t>
   </si>
   <si>
@@ -240,43 +237,22 @@
     <t>string</t>
   </si>
   <si>
-    <t>COMMUNITY CHEST</t>
-  </si>
-  <si>
     <t>tileTitle</t>
   </si>
   <si>
-    <t>INCOME TAX</t>
-  </si>
-  <si>
-    <t>RAILROAD</t>
-  </si>
-  <si>
-    <t>AVENUE</t>
-  </si>
-  <si>
-    <t>CHANCE</t>
-  </si>
-  <si>
-    <t>JUST VISITING</t>
-  </si>
-  <si>
-    <t>ELECTRIC COMPANY</t>
-  </si>
-  <si>
-    <t>FREE PARKING</t>
-  </si>
-  <si>
-    <t>WATER WORKS</t>
-  </si>
-  <si>
-    <t>GO TO JAIL</t>
-  </si>
-  <si>
-    <t>LUXURY TAX</t>
-  </si>
-  <si>
-    <t>GO</t>
+    <t>Slot mini game</t>
+  </si>
+  <si>
+    <t>EARN</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>SLOT</t>
   </si>
 </sst>
 </file>
@@ -783,7 +759,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +784,7 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>41</v>
@@ -820,7 +796,7 @@
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -841,13 +817,13 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -874,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -886,13 +862,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -958,13 +934,13 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -976,13 +952,13 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -994,7 +970,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1018,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,11 +1008,14 @@
         <v>25</v>
       </c>
       <c r="E13" s="5"/>
+      <c r="F13">
+        <v>100</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1054,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1090,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1102,13 +1081,13 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1138,13 +1117,13 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1156,13 +1135,13 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1174,7 +1153,7 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1198,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -1212,11 +1191,14 @@
         <v>23</v>
       </c>
       <c r="E23" s="5"/>
+      <c r="F23">
+        <v>100</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1234,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -1246,13 +1228,13 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1270,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1288,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1318,13 +1300,13 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1336,13 +1318,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1360,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1372,7 +1354,7 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1393,13 +1375,13 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -1417,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1435,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1453,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1471,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1501,13 +1483,13 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1519,13 +1501,13 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1537,13 +1519,13 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1561,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1581,10 +1563,10 @@
         <v>100</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1580,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1626,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,7 +1634,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,7 +1650,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/Datas/MonopolyMap.xlsx
+++ b/Datas/MonopolyMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417C005A-BC77-4DED-A68F-C0A3EFC338A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859218F6-FF81-4504-9D11-A9E96D56A4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{120673EB-ED9A-45E0-B257-0DC0E06105DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>SLOT</t>
+  </si>
+  <si>
+    <t>Fishing mini game</t>
+  </si>
+  <si>
+    <t>FISH</t>
   </si>
 </sst>
 </file>
@@ -758,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9291EF3-8D1E-4249-88DF-DF32AB1F3002}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,13 +886,13 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1027,13 +1033,13 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1192,13 +1198,13 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1393,13 +1399,13 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1537,13 +1543,13 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1580,7 +1586,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1664,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
